--- a/document/7. กลุ่มเทคโนโลยีสารสนเทศและดิจิทัลแบงก์ก.xlsx
+++ b/document/7. กลุ่มเทคโนโลยีสารสนเทศและดิจิทัลแบงก์ก.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simple\Desktop\directory\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worachit.pa\Desktop\directory\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDB68A7-ACA8-4958-AB84-5DC938586E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28A44E7-9E81-46E5-B325-278AA29FBB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" firstSheet="6" activeTab="9" xr2:uid="{C6E1CD40-5EDB-493E-916A-FB886CF4EFDD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="657" firstSheet="6" activeTab="9" xr2:uid="{C6E1CD40-5EDB-493E-916A-FB886CF4EFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="สายงานธุรกิจดิจิทัล 1" sheetId="2" r:id="rId1"/>
@@ -3186,12 +3186,12 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -14605,12 +14605,12 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -16327,12 +16327,12 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="2"/>
+    <col min="1" max="16384" width="20.75" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -29707,12 +29707,12 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -33167,12 +33167,12 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -44043,12 +44043,12 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -54447,12 +54447,12 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -57640,12 +57640,12 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -61939,12 +61939,12 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -66870,12 +66870,12 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
